--- a/notebooks/settings.xlsx
+++ b/notebooks/settings.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/_Plato/Plato/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAD6E47-1619-CC4C-AA7B-268511E1B04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA88DCC-682D-2C4E-97F9-E5EF0AA51942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{745898CB-6A96-6A42-A7F0-C6C371FC8CE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{745898CB-6A96-6A42-A7F0-C6C371FC8CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2a - Extended torque balance" sheetId="4" r:id="rId1"/>
     <sheet name="2b - Extended torque balance" sheetId="9" r:id="rId2"/>
-    <sheet name="3a - Uncertainty analysis" sheetId="7" r:id="rId3"/>
-    <sheet name="3b - Uncertainty analysis" sheetId="8" r:id="rId4"/>
-    <sheet name="4 - Slab pull optimisation" sheetId="5" r:id="rId5"/>
+    <sheet name="5b - Sediment subduction" sheetId="10" r:id="rId3"/>
+    <sheet name="3a - Uncertainty analysis" sheetId="7" r:id="rId4"/>
+    <sheet name="3b - Uncertainty analysis" sheetId="8" r:id="rId5"/>
+    <sheet name="4 - Slab pull optimisation" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -148,19 +149,118 @@
   </si>
   <si>
     <t>nnr</t>
+  </si>
+  <si>
+    <t>Sample sediment grid</t>
+  </si>
+  <si>
+    <t>Shear zone width</t>
+  </si>
+  <si>
+    <t>Minimum plate area</t>
+  </si>
+  <si>
+    <t>no_sed</t>
+  </si>
+  <si>
+    <t>pm_sed</t>
+  </si>
+  <si>
+    <t>passive_margin_sediment</t>
+  </si>
+  <si>
+    <t>gs_sed</t>
+  </si>
+  <si>
+    <t>globsed_sediment</t>
+  </si>
+  <si>
+    <t>am_sed</t>
+  </si>
+  <si>
+    <t>am_sed_nnr</t>
+  </si>
+  <si>
+    <t>am_sed_a</t>
+  </si>
+  <si>
+    <t>am_sed_v</t>
+  </si>
+  <si>
+    <t>am_sed_av</t>
+  </si>
+  <si>
+    <t>am_sed_x</t>
+  </si>
+  <si>
+    <t>am_sed_y</t>
+  </si>
+  <si>
+    <t>am_sed_z</t>
+  </si>
+  <si>
+    <t>eq_sed</t>
+  </si>
+  <si>
+    <t>equatorial_sediments</t>
+  </si>
+  <si>
+    <t>cb_sed</t>
+  </si>
+  <si>
+    <t>carbonate_sediments</t>
+  </si>
+  <si>
+    <t>cb_sed_w1</t>
+  </si>
+  <si>
+    <t>cb_sed_w2</t>
+  </si>
+  <si>
+    <t>cb_sed_w3</t>
+  </si>
+  <si>
+    <t>cb_sed_o1</t>
+  </si>
+  <si>
+    <t>carbonate_sediments_offset1</t>
+  </si>
+  <si>
+    <t>cb_sed_o2</t>
+  </si>
+  <si>
+    <t>carbonate_sediments_offset2</t>
+  </si>
+  <si>
+    <t>cb_sed_ow1</t>
+  </si>
+  <si>
+    <t>cb_sed_ow2</t>
+  </si>
+  <si>
+    <t>cb_sed_p</t>
+  </si>
+  <si>
+    <t>carbonate_sediments_period</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,10 +283,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F237874-3774-8A44-880A-D4D01C91DA6A}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1135,6 +1238,699 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD252801-88B0-B74D-8EF9-ED356E964EDA}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>500</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>100</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>500</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>500</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>100</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>100</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.22E+20</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8233F98-E437-7E49-BB85-51A85E23E447}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1169,7 +1965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1104F42-BC22-3042-AC9B-E2E6D371AD2B}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1199,7 +1995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A468147C-47B7-F647-8466-7AB5B79225F5}">
   <dimension ref="A1:B13"/>
   <sheetViews>

--- a/notebooks/settings.xlsx
+++ b/notebooks/settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/_Plato/Plato/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA88DCC-682D-2C4E-97F9-E5EF0AA51942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BED031B-5784-6A4C-B57F-AC24DD04067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{745898CB-6A96-6A42-A7F0-C6C371FC8CE9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -283,13 +283,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +628,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="A1:XFD1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1039,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F237874-3774-8A44-880A-D4D01C91DA6A}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1051,14 +1052,15 @@
     <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,22 +1074,19 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1100,23 +1099,21 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
+      <c r="E2" s="2">
+        <v>1.7E+20</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>150000</v>
       </c>
       <c r="H2" s="1">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="I2">
-        <v>1.64E+20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1129,23 +1126,21 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
+      <c r="E3" s="2">
+        <v>1.7E+20</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>150000</v>
       </c>
       <c r="H3" s="1">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="I3">
-        <v>1.64E+20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1158,23 +1153,21 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
+      <c r="E4" s="2">
+        <v>1.7E+20</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>150000</v>
       </c>
       <c r="H4" s="1">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="I4">
-        <v>1.64E+20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1187,23 +1180,21 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
+      <c r="E5" s="2">
+        <v>1.7E+20</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>150000</v>
       </c>
       <c r="H5" s="1">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="I5">
-        <v>1.64E+20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1216,21 +1207,19 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
+      <c r="E6" s="2">
+        <v>1.7E+20</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>150000</v>
       </c>
       <c r="H6" s="1">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="I6">
-        <v>1.64E+20</v>
-      </c>
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="J6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1239,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD252801-88B0-B74D-8EF9-ED356E964EDA}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1254,11 +1243,13 @@
     <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1280,14 +1271,20 @@
       <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1307,16 +1304,22 @@
         <v>2000</v>
       </c>
       <c r="G2" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H2" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I2" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J2" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K2" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -1336,16 +1339,22 @@
         <v>2000</v>
       </c>
       <c r="G3" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I3" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J3" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K3" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -1365,16 +1374,22 @@
         <v>2000</v>
       </c>
       <c r="G4" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I4" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J4" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K4" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -1394,16 +1409,22 @@
         <v>2000</v>
       </c>
       <c r="G5" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I5" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J5" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K5" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -1423,16 +1444,22 @@
         <v>2000</v>
       </c>
       <c r="G6" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I6" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J6" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K6" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -1452,16 +1479,22 @@
         <v>2000</v>
       </c>
       <c r="G7" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I7" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J7" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K7" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -1481,16 +1514,22 @@
         <v>2000</v>
       </c>
       <c r="G8" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I8" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J8" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K8" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
@@ -1510,16 +1549,22 @@
         <v>2000</v>
       </c>
       <c r="G9" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I9" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J9" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K9" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -1539,16 +1584,22 @@
         <v>2000</v>
       </c>
       <c r="G10" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I10" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J10" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K10" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -1568,16 +1619,22 @@
         <v>2000</v>
       </c>
       <c r="G11" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I11" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J11" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K11" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
@@ -1597,16 +1654,22 @@
         <v>2000</v>
       </c>
       <c r="G12" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I12" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J12" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K12" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
@@ -1626,16 +1689,22 @@
         <v>2000</v>
       </c>
       <c r="G13" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I13" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J13" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K13" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -1655,16 +1724,22 @@
         <v>2000</v>
       </c>
       <c r="G14" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I14" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J14" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K14" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
@@ -1684,16 +1759,22 @@
         <v>2000</v>
       </c>
       <c r="G15" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I15" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J15" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K15" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>56</v>
       </c>
@@ -1713,16 +1794,22 @@
         <v>1000</v>
       </c>
       <c r="G16" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H16" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I16" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J16" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K16" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -1742,16 +1829,22 @@
         <v>500</v>
       </c>
       <c r="G17" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I17" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J17" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K17" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -1771,16 +1864,22 @@
         <v>100</v>
       </c>
       <c r="G18" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I18" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J18" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K18" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>59</v>
       </c>
@@ -1800,16 +1899,22 @@
         <v>500</v>
       </c>
       <c r="G19" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I19" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J19" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K19" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
@@ -1829,16 +1934,22 @@
         <v>500</v>
       </c>
       <c r="G20" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I20" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J20" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K20" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>65</v>
       </c>
@@ -1858,16 +1969,22 @@
         <v>2000</v>
       </c>
       <c r="G21" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I21" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J21" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K21" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
@@ -1887,16 +2004,22 @@
         <v>100</v>
       </c>
       <c r="G22" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I22" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J22" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K22" s="4">
         <v>7500000000000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
@@ -1916,12 +2039,18 @@
         <v>100</v>
       </c>
       <c r="G23" s="4">
-        <v>1.22E+20</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="I23" s="4">
+        <v>1.7E+20</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>150000</v>
+      </c>
+      <c r="J23" s="6">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="K23" s="4">
         <v>7500000000000</v>
       </c>
     </row>

--- a/notebooks/settings.xlsx
+++ b/notebooks/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/_Plato/Plato/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BED031B-5784-6A4C-B57F-AC24DD04067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBB2C26-274C-D94D-9E59-CA4727D92D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{745898CB-6A96-6A42-A7F0-C6C371FC8CE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{745898CB-6A96-6A42-A7F0-C6C371FC8CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2a - Extended torque balance" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -55,40 +55,16 @@
     <t>keels</t>
   </si>
   <si>
-    <t>suction</t>
-  </si>
-  <si>
     <t>seds_keels</t>
   </si>
   <si>
-    <t>keels_suction</t>
-  </si>
-  <si>
-    <t>seds_suction</t>
-  </si>
-  <si>
-    <t>seds_keels_suction</t>
-  </si>
-  <si>
     <t>syn_seds</t>
   </si>
   <si>
     <t>syn_keels</t>
   </si>
   <si>
-    <t>syn_suction</t>
-  </si>
-  <si>
     <t>syn_seds_keels</t>
-  </si>
-  <si>
-    <t>syn_seds_suction</t>
-  </si>
-  <si>
-    <t>syn_keels_suction</t>
-  </si>
-  <si>
-    <t>syn_seds_keels_suction</t>
   </si>
   <si>
     <t>Reconstructed motions</t>
@@ -625,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4CBD66-BFAB-B949-8E50-D28214CEE213}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,6 +616,7 @@
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -647,22 +624,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -685,7 +662,7 @@
         <v>150000</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -708,7 +685,7 @@
         <v>150000</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -731,7 +708,7 @@
         <v>150000</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -742,13 +719,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
         <v>150000</v>
@@ -759,33 +736,33 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <v>150000</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -808,7 +785,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -828,10 +805,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -846,190 +823,6 @@
         <v>150000</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>150000</v>
-      </c>
-      <c r="G17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1043,7 +836,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1065,25 +858,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1100,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>1.7E+20</v>
+        <v>1.64E+20</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -1115,7 +908,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -1127,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>1.7E+20</v>
+        <v>1.64E+20</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -1142,7 +935,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -1154,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>1.7E+20</v>
+        <v>1.64E+20</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1169,7 +962,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -1181,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>1.7E+20</v>
+        <v>1.64E+20</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1196,7 +989,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -1208,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>1.7E+20</v>
+        <v>1.64E+20</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -1228,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD252801-88B0-B74D-8EF9-ED356E964EDA}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,48 +1036,40 @@
     <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1304,24 +1089,18 @@
         <v>2000</v>
       </c>
       <c r="G2" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J2" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K2" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H2" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="b">
         <v>0</v>
@@ -1339,24 +1118,18 @@
         <v>2000</v>
       </c>
       <c r="G3" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J3" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K3" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H3" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>0</v>
@@ -1365,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -1374,24 +1147,18 @@
         <v>2000</v>
       </c>
       <c r="G4" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J4" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K4" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H4" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>0</v>
@@ -1400,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3" t="b">
         <v>0</v>
@@ -1409,24 +1176,18 @@
         <v>2000</v>
       </c>
       <c r="G5" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J5" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K5" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H5" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>0</v>
@@ -1444,24 +1205,18 @@
         <v>2000</v>
       </c>
       <c r="G6" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J6" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K6" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H6" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
@@ -1479,24 +1234,18 @@
         <v>2000</v>
       </c>
       <c r="G7" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J7" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K7" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H7" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -1514,24 +1263,18 @@
         <v>2000</v>
       </c>
       <c r="G8" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J8" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K8" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H8" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3" t="b">
         <v>0</v>
@@ -1549,24 +1292,18 @@
         <v>2000</v>
       </c>
       <c r="G9" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J9" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K9" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H9" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="b">
         <v>0</v>
@@ -1584,24 +1321,18 @@
         <v>2000</v>
       </c>
       <c r="G10" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J10" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K10" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="b">
         <v>0</v>
@@ -1619,24 +1350,18 @@
         <v>2000</v>
       </c>
       <c r="G11" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J11" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K11" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H11" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="b">
         <v>0</v>
@@ -1654,24 +1379,18 @@
         <v>2000</v>
       </c>
       <c r="G12" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J12" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K12" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H12" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3" t="b">
         <v>0</v>
@@ -1689,24 +1408,18 @@
         <v>2000</v>
       </c>
       <c r="G13" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J13" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K13" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H13" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3" t="b">
         <v>0</v>
@@ -1715,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -1724,24 +1437,18 @@
         <v>2000</v>
       </c>
       <c r="G14" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J14" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K14" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H14" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B15" s="3" t="b">
         <v>0</v>
@@ -1750,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -1759,24 +1466,18 @@
         <v>2000</v>
       </c>
       <c r="G15" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J15" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K15" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H15" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>0</v>
@@ -1785,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -1794,24 +1495,18 @@
         <v>1000</v>
       </c>
       <c r="G16" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J16" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K16" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H16" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="b">
         <v>0</v>
@@ -1820,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>
@@ -1829,24 +1524,18 @@
         <v>500</v>
       </c>
       <c r="G17" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J17" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K17" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H17" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>0</v>
@@ -1855,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
@@ -1864,24 +1553,18 @@
         <v>100</v>
       </c>
       <c r="G18" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J18" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K18" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H18" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="b">
         <v>0</v>
@@ -1890,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
@@ -1899,24 +1582,18 @@
         <v>500</v>
       </c>
       <c r="G19" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J19" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K19" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="b">
         <v>0</v>
@@ -1925,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>0</v>
@@ -1934,24 +1611,18 @@
         <v>500</v>
       </c>
       <c r="G20" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J20" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K20" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H20" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B21" s="3" t="b">
         <v>0</v>
@@ -1960,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -1969,24 +1640,18 @@
         <v>2000</v>
       </c>
       <c r="G21" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J21" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K21" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H21" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="b">
         <v>0</v>
@@ -1995,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -2004,24 +1669,18 @@
         <v>100</v>
       </c>
       <c r="G22" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J22" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K22" s="4">
-        <v>7500000000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H22" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>7500000000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3" t="b">
         <v>0</v>
@@ -2030,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2039,18 +1698,12 @@
         <v>100</v>
       </c>
       <c r="G23" s="4">
-        <v>1.7E+20</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <v>150000</v>
-      </c>
-      <c r="J23" s="6">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="K23" s="4">
+        <v>1.87E+20</v>
+      </c>
+      <c r="H23" s="6">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I23" s="4">
         <v>7500000000000</v>
       </c>
     </row>
@@ -2081,12 +1734,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +1769,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2143,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2156,7 +1809,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2164,7 +1817,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2172,7 +1825,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -2180,7 +1833,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -2188,7 +1841,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -2196,7 +1849,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2204,7 +1857,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2212,7 +1865,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2220,7 +1873,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -2228,7 +1881,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -2236,7 +1889,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>

--- a/notebooks/settings.xlsx
+++ b/notebooks/settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/_Plato/Plato/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBB2C26-274C-D94D-9E59-CA4727D92D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF00F6B-02A6-3240-9B3B-8C5F3AB0BC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{745898CB-6A96-6A42-A7F0-C6C371FC8CE9}"/>
   </bookViews>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD252801-88B0-B74D-8EF9-ED356E964EDA}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/notebooks/settings.xlsx
+++ b/notebooks/settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/_Plato/Plato/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF00F6B-02A6-3240-9B3B-8C5F3AB0BC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650801BD-993E-0F4B-8768-5A6215965C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{745898CB-6A96-6A42-A7F0-C6C371FC8CE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{745898CB-6A96-6A42-A7F0-C6C371FC8CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2a - Extended torque balance" sheetId="4" r:id="rId1"/>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F237874-3774-8A44-880A-D4D01C91DA6A}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1023,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD252801-88B0-B74D-8EF9-ED356E964EDA}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/notebooks/settings.xlsx
+++ b/notebooks/settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/_Plato/Plato/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650801BD-993E-0F4B-8768-5A6215965C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B4AAE2-A80B-E644-A717-6DA497C8BE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{745898CB-6A96-6A42-A7F0-C6C371FC8CE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="4" xr2:uid="{745898CB-6A96-6A42-A7F0-C6C371FC8CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2a - Extended torque balance" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -835,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F237874-3774-8A44-880A-D4D01C91DA6A}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1714,32 +1714,47 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8233F98-E437-7E49-BB85-51A85E23E447}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1749,27 +1764,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1104F42-BC22-3042-AC9B-E2E6D371AD2B}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
